--- a/target/test-classes/testData/TestSuite1.xlsx
+++ b/target/test-classes/testData/TestSuite1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CEE96D-C600-4554-B6FB-D01AE23DA528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0281BA-5DF6-47DC-825C-325E23DE99D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>TCID</t>
   </si>
@@ -208,10 +208,13 @@
     <t>Enter Data to Search</t>
   </si>
   <si>
-    <t>googlepage.SearchBox</t>
-  </si>
-  <si>
-    <t>SearchBox</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>clickOnLink</t>
+  </si>
+  <si>
+    <t>googlepage.Searchbox</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +665,7 @@
         <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +678,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,17 +735,15 @@
         <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
+      <c r="F3"/>
     </row>
   </sheetData>
   <hyperlinks>
